--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5210416666666667</v>
+        <v>1.876536</v>
       </c>
       <c r="H2">
-        <v>1.563125</v>
+        <v>5.629607999999999</v>
       </c>
       <c r="I2">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="J2">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1005383333333333</v>
+        <v>0.2631573333333333</v>
       </c>
       <c r="N2">
-        <v>0.301615</v>
+        <v>0.789472</v>
       </c>
       <c r="O2">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="P2">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="Q2">
-        <v>0.0523846607638889</v>
+        <v>0.4938242096639999</v>
       </c>
       <c r="R2">
-        <v>0.471461946875</v>
+        <v>4.444417886975999</v>
       </c>
       <c r="S2">
-        <v>2.711352797540946E-06</v>
+        <v>3.212131796867948E-05</v>
       </c>
       <c r="T2">
-        <v>2.711352797540946E-06</v>
+        <v>3.212131796867947E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5210416666666667</v>
+        <v>1.876536</v>
       </c>
       <c r="H3">
-        <v>1.563125</v>
+        <v>5.629607999999999</v>
       </c>
       <c r="I3">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="J3">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.92131566666666</v>
+        <v>38.40488566666667</v>
       </c>
       <c r="N3">
-        <v>179.763947</v>
+        <v>115.214657</v>
       </c>
       <c r="O3">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="P3">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="Q3">
-        <v>31.22150218381944</v>
+        <v>72.06815052938398</v>
       </c>
       <c r="R3">
-        <v>280.9935196543749</v>
+        <v>648.6133547644559</v>
       </c>
       <c r="S3">
-        <v>0.001615978915489788</v>
+        <v>0.004687749067920512</v>
       </c>
       <c r="T3">
-        <v>0.001615978915489788</v>
+        <v>0.004687749067920512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5210416666666667</v>
+        <v>1.876536</v>
       </c>
       <c r="H4">
-        <v>1.563125</v>
+        <v>5.629607999999999</v>
       </c>
       <c r="I4">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="J4">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.15797833333334</v>
+        <v>58.724883</v>
       </c>
       <c r="N4">
-        <v>141.473935</v>
+        <v>176.174649</v>
       </c>
       <c r="O4">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="P4">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="Q4">
-        <v>24.57127162743056</v>
+        <v>110.199357045288</v>
       </c>
       <c r="R4">
-        <v>221.141444646875</v>
+        <v>991.7942134075918</v>
       </c>
       <c r="S4">
-        <v>0.001271772787962721</v>
+        <v>0.007168033721967972</v>
       </c>
       <c r="T4">
-        <v>0.001271772787962721</v>
+        <v>0.007168033721967971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5210416666666667</v>
+        <v>1.876536</v>
       </c>
       <c r="H5">
-        <v>1.563125</v>
+        <v>5.629607999999999</v>
       </c>
       <c r="I5">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="J5">
-        <v>0.005176831917831417</v>
+        <v>0.01402763363152179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.77971400000001</v>
+        <v>17.529963</v>
       </c>
       <c r="N5">
-        <v>254.339142</v>
+        <v>52.589889</v>
       </c>
       <c r="O5">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="P5">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="Q5">
-        <v>44.17376348208334</v>
+        <v>32.89560664816799</v>
       </c>
       <c r="R5">
-        <v>397.5638713387501</v>
+        <v>296.060459833512</v>
       </c>
       <c r="S5">
-        <v>0.002286368861581367</v>
+        <v>0.002139729523664625</v>
       </c>
       <c r="T5">
-        <v>0.002286368861581367</v>
+        <v>0.002139729523664625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.495361333333334</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H6">
         <v>10.486084</v>
       </c>
       <c r="I6">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="J6">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1005383333333333</v>
+        <v>0.2631573333333333</v>
       </c>
       <c r="N6">
-        <v>0.301615</v>
+        <v>0.789472</v>
       </c>
       <c r="O6">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="P6">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="Q6">
-        <v>0.3514178028511112</v>
+        <v>0.9198299675164442</v>
       </c>
       <c r="R6">
-        <v>3.162760225660001</v>
+        <v>8.278469707647998</v>
       </c>
       <c r="S6">
-        <v>1.818886729381806E-05</v>
+        <v>5.983131301687122E-05</v>
       </c>
       <c r="T6">
-        <v>1.818886729381806E-05</v>
+        <v>5.98313130168712E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.495361333333334</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H7">
         <v>10.486084</v>
       </c>
       <c r="I7">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="J7">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.92131566666666</v>
+        <v>38.40488566666667</v>
       </c>
       <c r="N7">
-        <v>179.763947</v>
+        <v>115.214657</v>
       </c>
       <c r="O7">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="P7">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="Q7">
-        <v>209.4466498237275</v>
+        <v>134.2389523703542</v>
       </c>
       <c r="R7">
-        <v>1885.019848413548</v>
+        <v>1208.150571333188</v>
       </c>
       <c r="S7">
-        <v>0.01084064975613263</v>
+        <v>0.008731714623315902</v>
       </c>
       <c r="T7">
-        <v>0.01084064975613263</v>
+        <v>0.008731714623315902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.495361333333334</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H8">
         <v>10.486084</v>
       </c>
       <c r="I8">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="J8">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.15797833333334</v>
+        <v>58.724883</v>
       </c>
       <c r="N8">
-        <v>141.473935</v>
+        <v>176.174649</v>
       </c>
       <c r="O8">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="P8">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="Q8">
-        <v>164.8341740245045</v>
+        <v>205.264685342724</v>
       </c>
       <c r="R8">
-        <v>1483.50756622054</v>
+        <v>1847.382168084516</v>
       </c>
       <c r="S8">
-        <v>0.00853157379191765</v>
+        <v>0.01335165853881634</v>
       </c>
       <c r="T8">
-        <v>0.00853157379191765</v>
+        <v>0.01335165853881634</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.495361333333334</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H9">
         <v>10.486084</v>
       </c>
       <c r="I9">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="J9">
-        <v>0.03472831305510521</v>
+        <v>0.02612880765079247</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>84.77971400000001</v>
+        <v>17.529963</v>
       </c>
       <c r="N9">
-        <v>254.339142</v>
+        <v>52.589889</v>
       </c>
       <c r="O9">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="P9">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="Q9">
-        <v>296.3357341666588</v>
+        <v>61.27355484496399</v>
       </c>
       <c r="R9">
-        <v>2667.021607499929</v>
+        <v>551.4619936046759</v>
       </c>
       <c r="S9">
-        <v>0.01533790063976111</v>
+        <v>0.003985603175643357</v>
       </c>
       <c r="T9">
-        <v>0.01533790063976111</v>
+        <v>0.003985603175643357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.058253</v>
+        <v>22.670672</v>
       </c>
       <c r="H10">
-        <v>42.174759</v>
+        <v>68.012016</v>
       </c>
       <c r="I10">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="J10">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1005383333333333</v>
+        <v>0.2631573333333333</v>
       </c>
       <c r="N10">
-        <v>0.301615</v>
+        <v>0.789472</v>
       </c>
       <c r="O10">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="P10">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="Q10">
-        <v>1.413393326198334</v>
+        <v>5.965953588394666</v>
       </c>
       <c r="R10">
-        <v>12.720539935785</v>
+        <v>53.693582295552</v>
       </c>
       <c r="S10">
-        <v>7.315515445038957E-05</v>
+        <v>0.0003880617605394401</v>
       </c>
       <c r="T10">
-        <v>7.315515445038957E-05</v>
+        <v>0.0003880617605394401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.058253</v>
+        <v>22.670672</v>
       </c>
       <c r="H11">
-        <v>42.174759</v>
+        <v>68.012016</v>
       </c>
       <c r="I11">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="J11">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.92131566666666</v>
+        <v>38.40488566666667</v>
       </c>
       <c r="N11">
-        <v>179.763947</v>
+        <v>115.214657</v>
       </c>
       <c r="O11">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="P11">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="Q11">
-        <v>842.3890157348636</v>
+        <v>870.6645661465013</v>
       </c>
       <c r="R11">
-        <v>7581.501141613772</v>
+        <v>7835.981095318512</v>
       </c>
       <c r="S11">
-        <v>0.04360081331298722</v>
+        <v>0.05663329748916709</v>
       </c>
       <c r="T11">
-        <v>0.04360081331298723</v>
+        <v>0.05663329748916709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.058253</v>
+        <v>22.670672</v>
       </c>
       <c r="H12">
-        <v>42.174759</v>
+        <v>68.012016</v>
       </c>
       <c r="I12">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="J12">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.15797833333334</v>
+        <v>58.724883</v>
       </c>
       <c r="N12">
-        <v>141.473935</v>
+        <v>176.174649</v>
       </c>
       <c r="O12">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="P12">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="Q12">
-        <v>662.9587903785184</v>
+        <v>1331.332560731376</v>
       </c>
       <c r="R12">
-        <v>5966.629113406666</v>
+        <v>11981.99304658238</v>
       </c>
       <c r="S12">
-        <v>0.03431376942668427</v>
+        <v>0.08659793438318002</v>
       </c>
       <c r="T12">
-        <v>0.03431376942668427</v>
+        <v>0.08659793438318002</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.058253</v>
+        <v>22.670672</v>
       </c>
       <c r="H13">
-        <v>42.174759</v>
+        <v>68.012016</v>
       </c>
       <c r="I13">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="J13">
-        <v>0.1396763781003104</v>
+        <v>0.1694696403353836</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>84.77971400000001</v>
+        <v>17.529963</v>
       </c>
       <c r="N13">
-        <v>254.339142</v>
+        <v>52.589889</v>
       </c>
       <c r="O13">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="P13">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="Q13">
-        <v>1191.854668679642</v>
+        <v>397.416041345136</v>
       </c>
       <c r="R13">
-        <v>10726.69201811678</v>
+        <v>3576.744372106224</v>
       </c>
       <c r="S13">
-        <v>0.06168864020618856</v>
+        <v>0.02585034670249703</v>
       </c>
       <c r="T13">
-        <v>0.06168864020618856</v>
+        <v>0.02585034670249703</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8260706666666667</v>
+        <v>0.5599146666666667</v>
       </c>
       <c r="H14">
-        <v>2.478212</v>
+        <v>1.679744</v>
       </c>
       <c r="I14">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272957</v>
       </c>
       <c r="J14">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272956</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1005383333333333</v>
+        <v>0.2631573333333333</v>
       </c>
       <c r="N14">
-        <v>0.301615</v>
+        <v>0.789472</v>
       </c>
       <c r="O14">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="P14">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="Q14">
-        <v>0.08305176804222224</v>
+        <v>0.1473456505742222</v>
       </c>
       <c r="R14">
-        <v>0.74746591238</v>
+        <v>1.326110855168</v>
       </c>
       <c r="S14">
-        <v>4.298637050203626E-06</v>
+        <v>9.584253669168714E-06</v>
       </c>
       <c r="T14">
-        <v>4.298637050203626E-06</v>
+        <v>9.584253669168711E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8260706666666667</v>
+        <v>0.5599146666666667</v>
       </c>
       <c r="H15">
-        <v>2.478212</v>
+        <v>1.679744</v>
       </c>
       <c r="I15">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272957</v>
       </c>
       <c r="J15">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272956</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.92131566666666</v>
+        <v>38.40488566666667</v>
       </c>
       <c r="N15">
-        <v>179.763947</v>
+        <v>115.214657</v>
       </c>
       <c r="O15">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="P15">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="Q15">
-        <v>49.49924118030711</v>
+        <v>21.50345875642311</v>
       </c>
       <c r="R15">
-        <v>445.493170622764</v>
+        <v>193.531128807808</v>
       </c>
       <c r="S15">
-        <v>0.002562007734578986</v>
+        <v>0.001398715216111863</v>
       </c>
       <c r="T15">
-        <v>0.002562007734578986</v>
+        <v>0.001398715216111863</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8260706666666667</v>
+        <v>0.5599146666666667</v>
       </c>
       <c r="H16">
-        <v>2.478212</v>
+        <v>1.679744</v>
       </c>
       <c r="I16">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272957</v>
       </c>
       <c r="J16">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272956</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.15797833333334</v>
+        <v>58.724883</v>
       </c>
       <c r="N16">
-        <v>141.473935</v>
+        <v>176.174649</v>
       </c>
       <c r="O16">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="P16">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="Q16">
-        <v>38.9558226004689</v>
+        <v>32.880923289984</v>
       </c>
       <c r="R16">
-        <v>350.60240340422</v>
+        <v>295.9283096098559</v>
       </c>
       <c r="S16">
-        <v>0.002016295935643451</v>
+        <v>0.002138774429102945</v>
       </c>
       <c r="T16">
-        <v>0.002016295935643451</v>
+        <v>0.002138774429102945</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8260706666666667</v>
+        <v>0.5599146666666667</v>
       </c>
       <c r="H17">
-        <v>2.478212</v>
+        <v>1.679744</v>
       </c>
       <c r="I17">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272957</v>
       </c>
       <c r="J17">
-        <v>0.008207460683408448</v>
+        <v>0.004185519387272956</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>84.77971400000001</v>
+        <v>17.529963</v>
       </c>
       <c r="N17">
-        <v>254.339142</v>
+        <v>52.589889</v>
       </c>
       <c r="O17">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="P17">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="Q17">
-        <v>70.03403486378934</v>
+        <v>9.815283389824</v>
       </c>
       <c r="R17">
-        <v>630.3063137741041</v>
+        <v>88.337550508416</v>
       </c>
       <c r="S17">
-        <v>0.003624858376135806</v>
+        <v>0.0006384454883889807</v>
       </c>
       <c r="T17">
-        <v>0.003624858376135806</v>
+        <v>0.0006384454883889806</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.38968300000001</v>
+        <v>91.28940466666667</v>
       </c>
       <c r="H18">
-        <v>193.169049</v>
+        <v>273.868214</v>
       </c>
       <c r="I18">
-        <v>0.6397464683888626</v>
+        <v>0.6824139388233083</v>
       </c>
       <c r="J18">
-        <v>0.6397464683888625</v>
+        <v>0.6824139388233081</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1005383333333333</v>
+        <v>0.2631573333333333</v>
       </c>
       <c r="N18">
-        <v>0.301615</v>
+        <v>0.789472</v>
       </c>
       <c r="O18">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="P18">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="Q18">
-        <v>6.473631412681668</v>
+        <v>24.02347629366755</v>
       </c>
       <c r="R18">
-        <v>58.262682714135</v>
+        <v>216.211286643008</v>
       </c>
       <c r="S18">
-        <v>0.0003350656162523625</v>
+        <v>0.001562632421903684</v>
       </c>
       <c r="T18">
-        <v>0.0003350656162523625</v>
+        <v>0.001562632421903684</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.38968300000001</v>
+        <v>91.28940466666667</v>
       </c>
       <c r="H19">
-        <v>193.169049</v>
+        <v>273.868214</v>
       </c>
       <c r="I19">
-        <v>0.6397464683888626</v>
+        <v>0.6824139388233083</v>
       </c>
       <c r="J19">
-        <v>0.6397464683888625</v>
+        <v>0.6824139388233081</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.92131566666666</v>
+        <v>38.40488566666667</v>
       </c>
       <c r="N19">
-        <v>179.763947</v>
+        <v>115.214657</v>
       </c>
       <c r="O19">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="P19">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="Q19">
-        <v>3858.3145207196</v>
+        <v>3505.9591488014</v>
       </c>
       <c r="R19">
-        <v>34724.83068647639</v>
+        <v>31553.6323392126</v>
       </c>
       <c r="S19">
-        <v>0.1997006703297648</v>
+        <v>0.2280488206126529</v>
       </c>
       <c r="T19">
-        <v>0.1997006703297648</v>
+        <v>0.2280488206126529</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.38968300000001</v>
+        <v>91.28940466666667</v>
       </c>
       <c r="H20">
-        <v>193.169049</v>
+        <v>273.868214</v>
       </c>
       <c r="I20">
-        <v>0.6397464683888626</v>
+        <v>0.6824139388233083</v>
       </c>
       <c r="J20">
-        <v>0.6397464683888625</v>
+        <v>0.6824139388233081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.15797833333334</v>
+        <v>58.724883</v>
       </c>
       <c r="N20">
-        <v>141.473935</v>
+        <v>176.174649</v>
       </c>
       <c r="O20">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="P20">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="Q20">
-        <v>3036.487275804202</v>
+        <v>5360.959608189654</v>
       </c>
       <c r="R20">
-        <v>27328.38548223782</v>
+        <v>48248.63647370689</v>
       </c>
       <c r="S20">
-        <v>0.1571641039551139</v>
+        <v>0.3487092872766881</v>
       </c>
       <c r="T20">
-        <v>0.1571641039551139</v>
+        <v>0.348709287276688</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.38968300000001</v>
+        <v>91.28940466666667</v>
       </c>
       <c r="H21">
-        <v>193.169049</v>
+        <v>273.868214</v>
       </c>
       <c r="I21">
-        <v>0.6397464683888626</v>
+        <v>0.6824139388233083</v>
       </c>
       <c r="J21">
-        <v>0.6397464683888625</v>
+        <v>0.6824139388233081</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.77971400000001</v>
+        <v>17.529963</v>
       </c>
       <c r="N21">
-        <v>254.339142</v>
+        <v>52.589889</v>
       </c>
       <c r="O21">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="P21">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="Q21">
-        <v>5458.938909290663</v>
+        <v>1600.299886098694</v>
       </c>
       <c r="R21">
-        <v>49130.45018361597</v>
+        <v>14402.69897488825</v>
       </c>
       <c r="S21">
-        <v>0.2825466284877315</v>
+        <v>0.1040931985120637</v>
       </c>
       <c r="T21">
-        <v>0.2825466284877315</v>
+        <v>0.1040931985120637</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.35834133333333</v>
+        <v>13.88234933333333</v>
       </c>
       <c r="H22">
-        <v>52.075024</v>
+        <v>41.647048</v>
       </c>
       <c r="I22">
-        <v>0.1724645478544819</v>
+        <v>0.1037744601717211</v>
       </c>
       <c r="J22">
-        <v>0.1724645478544819</v>
+        <v>0.103774460171721</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1005383333333333</v>
+        <v>0.2631573333333333</v>
       </c>
       <c r="N22">
-        <v>0.301615</v>
+        <v>0.789472</v>
       </c>
       <c r="O22">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="P22">
-        <v>0.0005237475043765254</v>
+        <v>0.002289860058541805</v>
       </c>
       <c r="Q22">
-        <v>1.745178707084444</v>
+        <v>3.653242030961777</v>
       </c>
       <c r="R22">
-        <v>15.70660836376</v>
+        <v>32.879178278656</v>
       </c>
       <c r="S22">
-        <v>9.032787653221072E-05</v>
+        <v>0.0002376289914439614</v>
       </c>
       <c r="T22">
-        <v>9.032787653221074E-05</v>
+        <v>0.0002376289914439613</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.35834133333333</v>
+        <v>13.88234933333333</v>
       </c>
       <c r="H23">
-        <v>52.075024</v>
+        <v>41.647048</v>
       </c>
       <c r="I23">
-        <v>0.1724645478544819</v>
+        <v>0.1037744601717211</v>
       </c>
       <c r="J23">
-        <v>0.1724645478544819</v>
+        <v>0.103774460171721</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>59.92131566666666</v>
+        <v>38.40488566666667</v>
       </c>
       <c r="N23">
-        <v>179.763947</v>
+        <v>115.214657</v>
       </c>
       <c r="O23">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="P23">
-        <v>0.3121559558315202</v>
+        <v>0.3341796051321567</v>
       </c>
       <c r="Q23">
-        <v>1040.134650484414</v>
+        <v>533.1500389313928</v>
       </c>
       <c r="R23">
-        <v>9361.211854359726</v>
+        <v>4798.350350382536</v>
       </c>
       <c r="S23">
-        <v>0.05383583578256674</v>
+        <v>0.03467930812298846</v>
       </c>
       <c r="T23">
-        <v>0.05383583578256676</v>
+        <v>0.03467930812298846</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.35834133333333</v>
+        <v>13.88234933333333</v>
       </c>
       <c r="H24">
-        <v>52.075024</v>
+        <v>41.647048</v>
       </c>
       <c r="I24">
-        <v>0.1724645478544819</v>
+        <v>0.1037744601717211</v>
       </c>
       <c r="J24">
-        <v>0.1724645478544819</v>
+        <v>0.103774460171721</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>47.15797833333334</v>
+        <v>58.724883</v>
       </c>
       <c r="N24">
-        <v>141.473935</v>
+        <v>176.174649</v>
       </c>
       <c r="O24">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="P24">
-        <v>0.2456662314227634</v>
+        <v>0.5109937934122071</v>
       </c>
       <c r="Q24">
-        <v>818.5842844999378</v>
+        <v>815.2393403651279</v>
       </c>
       <c r="R24">
-        <v>7367.25856049944</v>
+        <v>7337.154063286152</v>
       </c>
       <c r="S24">
-        <v>0.04236871552544139</v>
+        <v>0.05302810506245174</v>
       </c>
       <c r="T24">
-        <v>0.0423687155254414</v>
+        <v>0.05302810506245173</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.35834133333333</v>
+        <v>13.88234933333333</v>
       </c>
       <c r="H25">
-        <v>52.075024</v>
+        <v>41.647048</v>
       </c>
       <c r="I25">
-        <v>0.1724645478544819</v>
+        <v>0.1037744601717211</v>
       </c>
       <c r="J25">
-        <v>0.1724645478544819</v>
+        <v>0.103774460171721</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.77971400000001</v>
+        <v>17.529963</v>
       </c>
       <c r="N25">
-        <v>254.339142</v>
+        <v>52.589889</v>
       </c>
       <c r="O25">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="P25">
-        <v>0.4416540652413399</v>
+        <v>0.1525367413970946</v>
       </c>
       <c r="Q25">
-        <v>1471.635213754379</v>
+        <v>243.357070166408</v>
       </c>
       <c r="R25">
-        <v>13244.71692378941</v>
+        <v>2190.213631497672</v>
       </c>
       <c r="S25">
-        <v>0.07616966866994151</v>
+        <v>0.0158294179948369</v>
       </c>
       <c r="T25">
-        <v>0.07616966866994153</v>
+        <v>0.0158294179948369</v>
       </c>
     </row>
   </sheetData>
